--- a/sql_excel.xlsx
+++ b/sql_excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\sql_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C53BC4C-F0BE-45B2-A409-C4725299694D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638383F4-4064-4EC6-85BA-0DBD4E99DA36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="5" xr2:uid="{D3DDDB32-61E4-4DD8-83A2-E99A2A9383BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="7" xr2:uid="{D3DDDB32-61E4-4DD8-83A2-E99A2A9383BA}"/>
   </bookViews>
   <sheets>
     <sheet name="vendors" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="orders" sheetId="4" r:id="rId5"/>
     <sheet name="payments" sheetId="7" r:id="rId6"/>
     <sheet name="deliveries" sheetId="6" r:id="rId7"/>
+    <sheet name="receipts" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +80,9 @@
   </si>
   <si>
     <t>Payment_type</t>
+  </si>
+  <si>
+    <t>Receipt_id</t>
   </si>
 </sst>
 </file>
@@ -591,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4C319F-FAE0-4EAC-A413-19505A3065B1}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -653,4 +657,38 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA894642-9CBD-4BBB-A3A1-576F3486F091}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sql_excel.xlsx
+++ b/sql_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\sql_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638383F4-4064-4EC6-85BA-0DBD4E99DA36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDFB045-BE86-42BE-AAD7-AF2B7E2BB293}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="7" xr2:uid="{D3DDDB32-61E4-4DD8-83A2-E99A2A9383BA}"/>
   </bookViews>

--- a/sql_excel.xlsx
+++ b/sql_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\sql_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDFB045-BE86-42BE-AAD7-AF2B7E2BB293}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6F4AB6-10EA-4358-A011-92FA8DF30BFD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="7" xr2:uid="{D3DDDB32-61E4-4DD8-83A2-E99A2A9383BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{D3DDDB32-61E4-4DD8-83A2-E99A2A9383BA}"/>
   </bookViews>
   <sheets>
     <sheet name="vendors" sheetId="5" r:id="rId1"/>
@@ -632,7 +632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916B8862-A4BE-4A4C-98E6-698CBA0411C0}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -663,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA894642-9CBD-4BBB-A3A1-576F3486F091}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
